--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-904086.0157783489</v>
+        <v>-906634.6729643699</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>115.8995576144846</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>83.41943806107227</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>94.16217815422416</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>131.3542190999263</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>374.7557173334936</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>249.5456553076233</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>28.87956703897748</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>91.2960708817743</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.6499314317626</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>22.86125478512688</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>4.043187116398963</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>124.2292170629838</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>138.2893995353493</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465613</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>126.4418041083232</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187873</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>53.08838020945898</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462215</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>181.6459914616337</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142931</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>184.0201951466494</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>216.4795114578123</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2527,13 +2527,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053466</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018854</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>194.9085394018859</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797029</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>164.2607468869782</v>
+        <v>164.2607468869783</v>
       </c>
       <c r="C34" t="n">
-        <v>151.6755878036688</v>
+        <v>151.6755878036689</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>121.8668069087097</v>
+        <v>121.8668069087083</v>
       </c>
       <c r="F34" t="n">
-        <v>129.8498147279722</v>
+        <v>129.8498147279723</v>
       </c>
       <c r="G34" t="n">
-        <v>149.9529049973098</v>
+        <v>149.9529049973099</v>
       </c>
       <c r="H34" t="n">
-        <v>124.7234795512648</v>
+        <v>124.7234795512649</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>50.80401341516263</v>
+        <v>50.8040134151627</v>
       </c>
       <c r="S34" t="n">
-        <v>165.4550527066855</v>
+        <v>165.4550527066856</v>
       </c>
       <c r="T34" t="n">
-        <v>201.8342170323292</v>
+        <v>201.8342170323293</v>
       </c>
       <c r="U34" t="n">
-        <v>270.6132410942851</v>
+        <v>270.6132410942852</v>
       </c>
       <c r="V34" t="n">
-        <v>236.5664100288689</v>
+        <v>236.566410028869</v>
       </c>
       <c r="W34" t="n">
         <v>270.951765041632</v>
       </c>
       <c r="X34" t="n">
-        <v>210.1384220940781</v>
+        <v>210.1384220940782</v>
       </c>
       <c r="Y34" t="n">
-        <v>203.0134200571357</v>
+        <v>203.0134200571358</v>
       </c>
     </row>
     <row r="35">
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652705</v>
+        <v>56.98118882652558</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3898,10 +3898,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1934.208022973022</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2307.673781234102</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1934.208022973022</v>
+        <v>1987.713327533092</v>
       </c>
       <c r="Y2" t="n">
-        <v>1934.208022973022</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>752.7622949738577</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>752.7622949738577</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>602.6456555615218</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>454.7325619791288</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>307.8426144812186</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>307.8426144812186</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6254276990765</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764913</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760402</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882605</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W4" t="n">
         <v>1383.192889845645</v>
       </c>
       <c r="X4" t="n">
-        <v>1155.203338947628</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>934.4107598040974</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1239.503030201924</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="C5" t="n">
-        <v>870.5405132615124</v>
+        <v>1200.139242371468</v>
       </c>
       <c r="D5" t="n">
-        <v>512.2748146547618</v>
+        <v>841.8735437647176</v>
       </c>
       <c r="E5" t="n">
-        <v>126.4865620565176</v>
+        <v>456.0852911664734</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4577,16 +4577,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4598,19 +4598,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3073.539503116623</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2742.476615773052</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W5" t="n">
-        <v>2389.707960502938</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>2016.242202241858</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y5" t="n">
-        <v>1626.102870266046</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1898.123268251142</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1898.123268251142</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1609.020401376785</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1609.020401376785</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1319.603231339825</v>
+        <v>788.005982746196</v>
       </c>
       <c r="X7" t="n">
-        <v>1091.613680441807</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y7" t="n">
-        <v>1091.613680441807</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>2291.674678112795</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1922.712161172384</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1564.446462565633</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>1178.658209967389</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>767.6723051777815</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>352.5998550227779</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4805,13 +4805,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3302.513645058537</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3048.983168332374</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2717.920280988803</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.151625718689</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X8" t="n">
-        <v>1991.685867457609</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="Y8" t="n">
-        <v>1601.546535481797</v>
+        <v>2678.274518176917</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>684.4520072430315</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>515.5158243151246</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>365.3991849027889</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>217.4860913203958</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>70.5961438224854</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>70.5961438224854</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4993,19 +4993,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1801.810490449115</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1547.126002243228</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.1004720732712</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5045,19 +5045,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.580456911432</v>
+        <v>695.5020655703139</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835252</v>
+        <v>695.5020655703139</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711894</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.021500885202</v>
+        <v>916.294644713844</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.228921741672</v>
+        <v>695.5020655703139</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.3409563819414</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111862</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075943</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332399</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014788</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068015</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,43 +5340,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756259</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468454</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962603</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998428</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998428</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237714</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732781</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098184</v>
+        <v>869.6905094135293</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356174</v>
+        <v>700.7543264856224</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232816</v>
+        <v>550.6376870732867</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408885</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429781</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G16" t="n">
-        <v>317.615197557858</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000585</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797724</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580255</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924453</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718566</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681605</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783588</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640058</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192549</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111699</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075775</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332382</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014771</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355927</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291067998</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694693</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.26572885224</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,37 +5577,37 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637291</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890279</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444884</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.02845068417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>614.6217844681065</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>614.6217844681065</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>464.5051450557708</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557708</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578604</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578604</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000585</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797724</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580255</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235159</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2078.229264238543</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1789.154037582741</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1534.469549376854</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1245.052379339893</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1017.062828441876</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>796.2702492983462</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.864119183223</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1978.396372297858</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.711884091971</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925707</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134627</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -5996,43 +5996,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,10 +6124,10 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
         <v>402.7245934908938</v>
@@ -6139,19 +6139,19 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,7 +6163,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
@@ -6175,10 +6175,10 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
         <v>1491.508541327549</v>
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,31 +6221,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.917417812164</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.917417812164</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>571.6607764187997</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908929</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908929</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908929</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908929</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U31" t="n">
         <v>1746.193029533435</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>974.1018203925696</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>753.3092412490395</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>778.734434753957</v>
+        <v>778.734434753956</v>
       </c>
       <c r="C34" t="n">
-        <v>625.5267703058067</v>
+        <v>625.5267703058056</v>
       </c>
       <c r="D34" t="n">
-        <v>625.5267703058067</v>
+        <v>625.5267703058056</v>
       </c>
       <c r="E34" t="n">
-        <v>502.4289855495343</v>
+        <v>502.4289855495346</v>
       </c>
       <c r="F34" t="n">
-        <v>371.2675565313806</v>
+        <v>371.2675565313808</v>
       </c>
       <c r="G34" t="n">
         <v>219.7999757260172</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>189.4682024403052</v>
+        <v>189.4682024403051</v>
       </c>
       <c r="K34" t="n">
-        <v>466.5729859278532</v>
+        <v>466.5729859278531</v>
       </c>
       <c r="L34" t="n">
-        <v>872.3871010658025</v>
+        <v>872.3871010658027</v>
       </c>
       <c r="M34" t="n">
         <v>1309.812324758847</v>
       </c>
       <c r="N34" t="n">
-        <v>1742.637717380865</v>
+        <v>1742.637717380864</v>
       </c>
       <c r="O34" t="n">
         <v>2127.582519051859</v>
@@ -6895,13 +6895,13 @@
         <v>1635.668125743678</v>
       </c>
       <c r="W34" t="n">
-        <v>1361.979474186474</v>
+        <v>1361.979474186473</v>
       </c>
       <c r="X34" t="n">
         <v>1149.718441768213</v>
       </c>
       <c r="Y34" t="n">
-        <v>944.6543811044401</v>
+        <v>944.6543811044392</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319337</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656831</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150037</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942668</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580128</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345491</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384032</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,7 +7096,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7160,16 +7160,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7251,22 +7251,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,7 +7330,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380731</v>
@@ -7369,10 +7369,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656818</v>
@@ -7555,25 +7555,25 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7597,7 +7597,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
         <v>533.5814564942654</v>
@@ -7807,7 +7807,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311325</v>
@@ -7828,25 +7828,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>233.3414111029284</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>286.3116626173968</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>2.190242255613953</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>94.35543628911086</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>10.32607348286308</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>99.26785128071398</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>114.1584408891688</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012363</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>104.8770068749573</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>138.494940240508</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012194</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>33.38525518063886</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>69.70496293143185</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24415,13 +24415,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.22910392194259</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194255</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>133.0442397232533</v>
+        <v>133.0442397232534</v>
       </c>
       <c r="E34" t="n">
-        <v>8.995922442900392</v>
+        <v>8.995922442901891</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>65.69460302360648</v>
+        <v>65.69460302360655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2.060573933704291e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187548.4044340063</v>
+        <v>187548.4044340064</v>
       </c>
       <c r="C2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="D2" t="n">
         <v>225786.4867126779</v>
       </c>
       <c r="E2" t="n">
-        <v>221965.3149147518</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="F2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="G2" t="n">
-        <v>221965.3149147515</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="H2" t="n">
         <v>221965.3149147517</v>
@@ -26341,13 +26341,13 @@
         <v>221965.3149147517</v>
       </c>
       <c r="L2" t="n">
-        <v>224415.4372624254</v>
+        <v>224415.4372624255</v>
       </c>
       <c r="M2" t="n">
         <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
         <v>225786.4867126781</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,28 +26375,28 @@
         <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>-9.035039696512587e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.437422608636552e-09</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>12456.98663596725</v>
+        <v>12456.98663596719</v>
       </c>
       <c r="M3" t="n">
-        <v>92025.75929317639</v>
+        <v>92025.75929317642</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14040.01085717765</v>
+        <v>14040.01085717763</v>
       </c>
       <c r="C4" t="n">
         <v>93403.78684820632</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685516</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685504</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
@@ -26445,7 +26445,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>19340.46383151812</v>
+        <v>19340.4638315181</v>
       </c>
       <c r="M4" t="n">
         <v>22207.61133994855</v>
@@ -26457,7 +26457,7 @@
         <v>22207.61133994851</v>
       </c>
       <c r="P4" t="n">
-        <v>22207.61133994852</v>
+        <v>22207.61133994853</v>
       </c>
     </row>
     <row r="5">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1263170.292712157</v>
+        <v>-1263517.911641963</v>
       </c>
       <c r="C6" t="n">
-        <v>24448.75930307838</v>
+        <v>24448.75930307826</v>
       </c>
       <c r="D6" t="n">
-        <v>24448.75930307824</v>
+        <v>24448.75930307826</v>
       </c>
       <c r="E6" t="n">
-        <v>-218786.4287933657</v>
+        <v>-218821.1667188013</v>
       </c>
       <c r="F6" t="n">
-        <v>106626.0330139921</v>
+        <v>106591.2950885538</v>
       </c>
       <c r="G6" t="n">
-        <v>106626.0330139894</v>
+        <v>106591.2950885538</v>
       </c>
       <c r="H6" t="n">
-        <v>106626.033013987</v>
+        <v>106591.2950885538</v>
       </c>
       <c r="I6" t="n">
-        <v>106626.0330139896</v>
+        <v>106591.2950885539</v>
       </c>
       <c r="J6" t="n">
-        <v>-110905.169383288</v>
+        <v>-110939.9073087237</v>
       </c>
       <c r="K6" t="n">
-        <v>106626.0330139896</v>
+        <v>106591.2950885539</v>
       </c>
       <c r="L6" t="n">
-        <v>90186.39895915905</v>
+        <v>90173.93487324777</v>
       </c>
       <c r="M6" t="n">
         <v>8389.000225637748</v>
       </c>
       <c r="N6" t="n">
-        <v>100414.7595188141</v>
+        <v>100414.7595188142</v>
       </c>
       <c r="O6" t="n">
         <v>100414.7595188142</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495899</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203975</v>
@@ -26722,10 +26722,10 @@
         <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26747,10 +26747,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495899</v>
       </c>
       <c r="M2" t="n">
-        <v>8.713414197080693</v>
+        <v>8.713414197080759</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26969,13 +26969,13 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.506380985978816e-12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>32.1203284082178</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>1.449516651278657</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>160.8894582924644</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>195.2269274548167</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>52.95783295555785</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>181.0567153544933</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>140.7118277979218</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28065,7 +28065,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>161.9826211426291</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>7.884182195994071e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.701199264265597e-12</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28339,10 +28339,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.859155422623951e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2.444267011014745e-12</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495899</v>
       </c>
       <c r="C34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495899</v>
       </c>
       <c r="D34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495899</v>
       </c>
       <c r="E34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495899</v>
       </c>
       <c r="F34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495899</v>
       </c>
       <c r="G34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495899</v>
       </c>
       <c r="H34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495899</v>
       </c>
       <c r="I34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495899</v>
       </c>
       <c r="J34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495899</v>
       </c>
       <c r="K34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495899</v>
       </c>
       <c r="L34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495899</v>
       </c>
       <c r="M34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495899</v>
       </c>
       <c r="N34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495899</v>
       </c>
       <c r="O34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495899</v>
       </c>
       <c r="P34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495899</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495899</v>
       </c>
       <c r="R34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495899</v>
       </c>
       <c r="S34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495899</v>
       </c>
       <c r="T34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495899</v>
       </c>
       <c r="U34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495899</v>
       </c>
       <c r="V34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495899</v>
       </c>
       <c r="W34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495899</v>
       </c>
       <c r="X34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495899</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495899</v>
       </c>
     </row>
     <row r="35">
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31835,16 +31835,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,13 +31853,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420748</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422575</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473057</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>379.4203056753778</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437227</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214685</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485282</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418556</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043895</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473057</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437227</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>322.896465370497</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,25 +33494,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,10 +33971,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>321.1112257697157</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,13 +35501,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754081</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678985</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>237.2862717533595</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992783</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071383</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625067</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789168</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902574</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992783</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561668</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>96.61771655791242</v>
+        <v>96.61771655791235</v>
       </c>
       <c r="K34" t="n">
-        <v>279.903821704594</v>
+        <v>279.9038217045939</v>
       </c>
       <c r="L34" t="n">
         <v>409.9132476140904</v>
@@ -37236,16 +37236,16 @@
         <v>441.8436602960041</v>
       </c>
       <c r="N34" t="n">
-        <v>437.1973662848665</v>
+        <v>437.1973662848664</v>
       </c>
       <c r="O34" t="n">
-        <v>388.8331330010045</v>
+        <v>388.8331330010044</v>
       </c>
       <c r="P34" t="n">
-        <v>311.203006601584</v>
+        <v>311.2030066015839</v>
       </c>
       <c r="Q34" t="n">
-        <v>135.9734905948574</v>
+        <v>135.9734905948573</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,10 +37619,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,16 +38175,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980851</v>
